--- a/data/neurogenesisdata.xlsx
+++ b/data/neurogenesisdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\133228\Lazarov Lab\Manuscripts\Human neurogenesis\Cell Stem Cell\Revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenguerin/Documents/R Class/Data Replication Project/guerin-steven-ADA-data-reproduction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4867D6-3DE7-4E12-B5FE-660E8EE2C4D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609C101-2246-FB48-8F79-4B0B0D670A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32780" yWindow="-13220" windowWidth="23260" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$N$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -691,35 +701,35 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="23.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.5" style="1" customWidth="1"/>
     <col min="17" max="32" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" style="1" customWidth="1"/>
     <col min="35" max="50" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.44140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5" style="1" customWidth="1"/>
     <col min="53" max="16384" width="13.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -785,7 +795,7 @@
       <c r="AY1" s="14"/>
       <c r="AZ1" s="14"/>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -943,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>4974.4490960612811</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>3906.7409806240416</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>2966.9618102219342</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>11</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>1205.9600996646902</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>537.78016420019287</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>2433.9298758788987</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>2588.7750622625899</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>173.4466214828291</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -2594,7 +2604,7 @@
         <v>542.82157300658923</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>1172.9852190761876</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>17</v>
       </c>
@@ -2926,7 +2936,7 @@
         <v>1677.7460184289123</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>1374.4058133998742</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3258,7 +3268,7 @@
         <v>767.56891156255892</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -3424,7 +3434,7 @@
         <v>1449.0417546934186</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -3590,7 +3600,7 @@
         <v>2292.9550367738284</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3756,7 +3766,7 @@
         <v>1244.721370801786</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3919,59 +3929,59 @@
         <v>1079.9272781811551</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G37" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AZ20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AZ20">
     <sortCondition descending="1" ref="J3:J20"/>
   </sortState>
   <mergeCells count="6">
